--- a/Marketing/ucla.roomme.xlsx
+++ b/Marketing/ucla.roomme.xlsx
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">

--- a/Marketing/ucla.roomme.xlsx
+++ b/Marketing/ucla.roomme.xlsx
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">

--- a/Marketing/ucla.roomme.xlsx
+++ b/Marketing/ucla.roomme.xlsx
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="B527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="B562" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="B567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="B569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B576" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="B602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="B606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="B609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="B612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B614" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="B616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="B617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="B618" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B620" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B622" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="B626" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B630" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="B645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B647" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B653" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B659" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="B662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B663" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="B664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B670" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B672" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B678" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B682" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="B683" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B686" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B691" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B693" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="B696" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="B698" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B709" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B719" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="B722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="B723" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B728" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="B732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="B733" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B734" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B736" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B737" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B738" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B739" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="B740" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B741" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="B743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="B744" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B745" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="B747" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="B748" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="B749" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="B750" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="B752" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B754" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B755" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="B756" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="B757" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="B758" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B759" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="B760" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="B761" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="B762" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="B764" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="B765" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="B766" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="B769" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="B770" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="B771" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="B772" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B773" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B774" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="B776" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B777" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B778" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="B779" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B781" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="B782" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="B783" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="B784" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="B785" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B786" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B787" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="B788" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B789" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B790" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="B792" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B793" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="B794" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="B795" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="B796" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="B797" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="B798" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="B799" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="B800" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="B801" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="B802" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="B803" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="B804" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="B805" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="B806" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="B807" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="B808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="B809" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="B810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="B811" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="B812" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="B813" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="B814" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B815" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="B817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="B818" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B819" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="B820" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="B821" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="B822" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="B823" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B824" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="B825" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="B826" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="B827" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="B828" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B829" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="B830" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="B831" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="B832" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="B833" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="B834" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="B835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="B836" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="B837" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="B838" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="B839" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="B840" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="B841" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="B842" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="B843" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B844" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="B845" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="B846" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="B847" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="B848" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="B850" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -8942,7 +8942,7 @@
         </is>
       </c>
       <c r="B851" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="B852" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="B853" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="B854" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="B855" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="B856" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="B857" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="B858" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859">
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="B859" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="B860" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="B861" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="B862" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="B863" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="B864" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="B865" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="B866" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="B867" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="B868" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869">
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="B869" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="B870" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="B871" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="B872" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873">
@@ -9162,7 +9162,7 @@
         </is>
       </c>
       <c r="B873" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="B874" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B875" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="B876" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877">
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="B877" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="B878" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="B879" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="B880" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -9242,7 +9242,7 @@
         </is>
       </c>
       <c r="B881" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="B882" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="B883" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="B884" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="B885" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="B886" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B888" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="B889" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="B890" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="B891" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B892" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="B893" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B894" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="B895" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="B896" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="B897" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B898" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="B899" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="B900" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="B901" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="B902" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="B903" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="B904" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="B905" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="B906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="B907" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="B908" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="B909" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -9542,7 +9542,7 @@
         </is>
       </c>
       <c r="B911" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="B912" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -9562,7 +9562,7 @@
         </is>
       </c>
       <c r="B913" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914">
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="B914" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="B915" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="B916" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917">
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="B917" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="B918" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="B919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B920" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -9642,7 +9642,7 @@
         </is>
       </c>
       <c r="B921" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="B922" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923">
@@ -9662,7 +9662,7 @@
         </is>
       </c>
       <c r="B923" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="B924" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="B925" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="B926" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="B927" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="B928" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -9722,7 +9722,7 @@
         </is>
       </c>
       <c r="B929" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="B930" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931">
@@ -9742,7 +9742,7 @@
         </is>
       </c>
       <c r="B931" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="B932" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="B933" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="B934" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="B935" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="B936" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="B937" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="B938" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="B939" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="B940" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="B941" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="B942" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943">
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="B943" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="B944" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="B945" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="B946" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947">
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="B947" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="B948" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949">
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="B949" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B950" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951">
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="B951" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="B952" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="B953" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="B954" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="B955" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="B956" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957">
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="B957" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="B958" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959">
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="B959" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="B960" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961">
@@ -10042,7 +10042,7 @@
         </is>
       </c>
       <c r="B961" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962">
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="B962" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B963" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964">
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="B964" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="B965" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="B966" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="B967" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="B968" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969">
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="B969" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="B970" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971">
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="B971" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="B972" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973">
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="B973" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="B974" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="B975" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976">
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="B976" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977">
@@ -10202,7 +10202,7 @@
         </is>
       </c>
       <c r="B977" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978">
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="B978" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979">
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="B979" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="B980" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981">
@@ -10242,7 +10242,7 @@
         </is>
       </c>
       <c r="B981" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="B982" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="B983" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="B984" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="B985" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986">
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="B986" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987">
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="B987" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988">
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="B988" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989">
@@ -10322,7 +10322,7 @@
         </is>
       </c>
       <c r="B989" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="B990" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="B991" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -10352,7 +10352,7 @@
         </is>
       </c>
       <c r="B992" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="B993" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="B994" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -10382,7 +10382,7 @@
         </is>
       </c>
       <c r="B995" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="B996" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997">
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="B997" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="B998" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="B999" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="B1000" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001">
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B1001" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="B1002" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003">
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="B1003" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="B1004" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="B1005" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="B1006" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="B1007" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="B1008" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="B1009" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="B1010" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="B1011" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="B1012" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="B1013" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="B1014" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015">
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="B1015" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016">
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="B1016" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="B1017" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018">
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="B1018" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="B1019" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="B1020" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021">
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="B1021" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="B1022" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
